--- a/Chain_Encoder/M5Stack-Chain-Encoder-通讯协议-V1.xlsx
+++ b/Chain_Encoder/M5Stack-Chain-Encoder-通讯协议-V1.xlsx
@@ -601,7 +601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,19 +622,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDE9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,139 +947,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1092,6 +971,139 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1382,7 +1394,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1406,7 +1418,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1415,7 +1427,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1424,89 +1436,89 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1564,40 +1576,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1606,91 +1621,76 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,37 +1720,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2076,8 +2076,8 @@
   </sheetPr>
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="14.25"/>
@@ -2108,13 +2108,13 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2127,11 +2127,11 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67">
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63">
         <v>45576</v>
       </c>
     </row>
@@ -2161,12 +2161,20 @@
         <v>5</v>
       </c>
       <c r="I3" s="8">
-        <v>3</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="J3" s="64">
+        <v>7</v>
+      </c>
+      <c r="K3" s="64">
+        <v>8</v>
+      </c>
+      <c r="L3" s="64">
+        <v>9</v>
+      </c>
+      <c r="M3" s="65">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" ht="10.3" customHeight="1" spans="1:13">
       <c r="A4" s="11"/>
@@ -2201,7 +2209,7 @@
       <c r="L4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="70"/>
+      <c r="M4" s="66"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:13">
       <c r="A5" s="16" t="s">
@@ -2234,7 +2242,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="71"/>
+      <c r="M5" s="67"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:13">
       <c r="A6" s="11"/>
@@ -2253,10 +2261,10 @@
       <c r="F6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="24" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="21" t="s">
@@ -2265,7 +2273,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="71" t="s">
+      <c r="M6" s="67" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2274,19 +2282,19 @@
       <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="72"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:13">
       <c r="A8" s="16" t="s">
@@ -2319,7 +2327,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="71"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:13">
       <c r="A9" s="11"/>
@@ -2338,10 +2346,10 @@
       <c r="F9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="24" t="s">
         <v>26</v>
       </c>
       <c r="I9" s="21" t="s">
@@ -2350,7 +2358,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="71" t="s">
+      <c r="M9" s="67" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2359,22 +2367,22 @@
       <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="72"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="68"/>
     </row>
     <row r="11" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -2404,10 +2412,10 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="71"/>
+      <c r="M11" s="67"/>
     </row>
     <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
@@ -2423,7 +2431,7 @@
       <c r="F12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="24" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -2435,62 +2443,62 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
-      <c r="M12" s="71"/>
+      <c r="M12" s="67"/>
     </row>
     <row r="13" customFormat="1" ht="53" customHeight="1" spans="1:13">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="73"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="69"/>
     </row>
     <row r="14" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="74"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="70"/>
     </row>
     <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:13">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
@@ -2506,7 +2514,7 @@
       <c r="F15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="24" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -2518,29 +2526,29 @@
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
-      <c r="M15" s="71"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" customFormat="1" ht="52" customHeight="1" spans="1:13">
-      <c r="A16" s="37"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="72"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="68"/>
     </row>
     <row r="17" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -2558,7 +2566,7 @@
       <c r="F17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="24" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -2570,178 +2578,178 @@
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="71"/>
+      <c r="M17" s="67"/>
     </row>
     <row r="18" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A18" s="27"/>
-      <c r="B18" s="38" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="75" t="s">
+      <c r="I18" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
     </row>
     <row r="19" customFormat="1" ht="72" customHeight="1" spans="1:13">
-      <c r="A19" s="37"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
     </row>
     <row r="20" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
     </row>
     <row r="21" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
     </row>
     <row r="22" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
     </row>
     <row r="23" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="77" t="s">
+      <c r="J23" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="75"/>
     </row>
     <row r="24" customFormat="1" ht="19" customHeight="1" spans="1:13">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="23" t="s">
         <v>23</v>
       </c>
@@ -2757,7 +2765,7 @@
       <c r="F24" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="24" t="s">
         <v>35</v>
       </c>
       <c r="H24" s="21" t="s">
@@ -2769,29 +2777,29 @@
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
-      <c r="M24" s="71"/>
+      <c r="M24" s="67"/>
     </row>
     <row r="25" customFormat="1" ht="46" customHeight="1" spans="1:13">
-      <c r="A25" s="37"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="72"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="68"/>
     </row>
     <row r="26" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="17" t="s">
@@ -2821,10 +2829,10 @@
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
-      <c r="M26" s="71"/>
+      <c r="M26" s="67"/>
     </row>
     <row r="27" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="23" t="s">
         <v>23</v>
       </c>
@@ -2840,13 +2848,13 @@
       <c r="F27" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="24" t="s">
         <v>52</v>
       </c>
       <c r="J27" s="21" t="s">
@@ -2854,29 +2862,29 @@
       </c>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
-      <c r="M27" s="71"/>
+      <c r="M27" s="67"/>
     </row>
     <row r="28" customFormat="1" ht="31" customHeight="1" spans="1:13">
-      <c r="A28" s="37"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="72"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="68"/>
     </row>
     <row r="29" customFormat="1" ht="19" customHeight="1" spans="1:13">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -2894,7 +2902,7 @@
       <c r="F29" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="24" t="s">
         <v>59</v>
       </c>
       <c r="H29" s="21" t="s">
@@ -2906,10 +2914,10 @@
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
-      <c r="M29" s="71"/>
+      <c r="M29" s="67"/>
     </row>
     <row r="30" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="23" t="s">
         <v>23</v>
       </c>
@@ -2925,7 +2933,7 @@
       <c r="F30" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="24" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="21" t="s">
@@ -2937,29 +2945,29 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
-      <c r="M30" s="71"/>
+      <c r="M30" s="67"/>
     </row>
     <row r="31" customFormat="1" ht="56" customHeight="1" spans="1:13">
-      <c r="A31" s="37"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="72"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="68"/>
     </row>
     <row r="32" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="17" t="s">
@@ -2989,10 +2997,10 @@
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
-      <c r="M32" s="71"/>
+      <c r="M32" s="67"/>
     </row>
     <row r="33" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="23" t="s">
         <v>23</v>
       </c>
@@ -3008,7 +3016,7 @@
       <c r="F33" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="24" t="s">
         <v>59</v>
       </c>
       <c r="H33" s="21" t="s">
@@ -3020,62 +3028,62 @@
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
-      <c r="M33" s="71"/>
+      <c r="M33" s="67"/>
     </row>
     <row r="34" customFormat="1" ht="33" customHeight="1" spans="1:13">
-      <c r="A34" s="37"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="72"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="68"/>
     </row>
     <row r="35" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>64</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="58" t="s">
+      <c r="E35" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="58" t="s">
+      <c r="F35" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="58" t="s">
+      <c r="I35" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="80"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="76"/>
     </row>
     <row r="36" customFormat="1" ht="19" customHeight="1" spans="1:13">
-      <c r="A36" s="27"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="23" t="s">
         <v>23</v>
       </c>
@@ -3091,7 +3099,7 @@
       <c r="F36" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="24" t="s">
         <v>30</v>
       </c>
       <c r="H36" s="21" t="s">
@@ -3103,29 +3111,29 @@
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
-      <c r="M36" s="71"/>
+      <c r="M36" s="67"/>
     </row>
     <row r="37" customFormat="1" ht="29" customHeight="1" spans="1:13">
-      <c r="A37" s="37"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="72"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="68"/>
     </row>
     <row r="38" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="17" t="s">
@@ -3151,10 +3159,10 @@
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
-      <c r="M38" s="71"/>
+      <c r="M38" s="67"/>
     </row>
     <row r="39" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A39" s="27"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="23" t="s">
         <v>23</v>
       </c>
@@ -3170,7 +3178,7 @@
       <c r="F39" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="24" t="s">
         <v>70</v>
       </c>
       <c r="H39" s="21" t="s">
@@ -3180,31 +3188,31 @@
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
-      <c r="M39" s="71" t="s">
+      <c r="M39" s="67" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="38" customHeight="1" spans="1:13">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="72"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="68"/>
     </row>
     <row r="41" customFormat="1" ht="22" customHeight="1" spans="1:13">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="27" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -3230,10 +3238,10 @@
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
-      <c r="M41" s="71"/>
+      <c r="M41" s="67"/>
     </row>
     <row r="42" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A42" s="27"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="23" t="s">
         <v>23</v>
       </c>
@@ -3249,7 +3257,7 @@
       <c r="F42" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="24" t="s">
         <v>75</v>
       </c>
       <c r="H42" s="21" t="s">
@@ -3259,31 +3267,31 @@
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
-      <c r="M42" s="71" t="s">
+      <c r="M42" s="67" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A43" s="37"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="72"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="68"/>
     </row>
     <row r="44" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="27" t="s">
         <v>77</v>
       </c>
       <c r="B44" s="17" t="s">
@@ -3309,10 +3317,10 @@
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
-      <c r="M44" s="71"/>
+      <c r="M44" s="67"/>
     </row>
     <row r="45" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A45" s="27"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="23" t="s">
         <v>23</v>
       </c>
@@ -3328,10 +3336,10 @@
       <c r="F45" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="20" t="s">
+      <c r="H45" s="24" t="s">
         <v>80</v>
       </c>
       <c r="I45" s="21" t="s">
@@ -3340,52 +3348,52 @@
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
-      <c r="M45" s="71" t="s">
+      <c r="M45" s="67" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="44" customHeight="1" spans="1:13">
-      <c r="A46" s="37"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="72"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="68"/>
     </row>
     <row r="47" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="27" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="80"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="76"/>
     </row>
     <row r="48" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A48" s="27"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="23" t="s">
         <v>23</v>
       </c>
@@ -3409,31 +3417,31 @@
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
-      <c r="M48" s="71" t="s">
+      <c r="M48" s="67" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A49" s="37"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="72"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="68"/>
     </row>
     <row r="50" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B50" s="17" t="s">
@@ -3459,10 +3467,10 @@
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
-      <c r="M50" s="71"/>
+      <c r="M50" s="67"/>
     </row>
     <row r="51" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A51" s="27"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="23" t="s">
         <v>23</v>
       </c>
@@ -3486,31 +3494,31 @@
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
-      <c r="M51" s="71" t="s">
+      <c r="M51" s="67" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" customFormat="1" ht="28" customHeight="1" spans="1:13">
-      <c r="A52" s="37"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="72"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="68"/>
     </row>
     <row r="53" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B53" s="17" t="s">
@@ -3528,7 +3536,7 @@
       <c r="F53" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="24" t="s">
         <v>91</v>
       </c>
       <c r="H53" s="21" t="s">
@@ -3538,10 +3546,10 @@
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
-      <c r="M53" s="71"/>
+      <c r="M53" s="67"/>
     </row>
     <row r="54" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A54" s="27"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="23" t="s">
         <v>23</v>
       </c>
@@ -3557,7 +3565,7 @@
       <c r="F54" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="24" t="s">
         <v>92</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -3567,28 +3575,28 @@
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
-      <c r="M54" s="71" t="s">
+      <c r="M54" s="67" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="55" customFormat="1" ht="32" customHeight="1" spans="1:13">
-      <c r="A55" s="37"/>
-      <c r="B55" s="59" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="81"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="77"/>
     </row>
     <row r="80" ht="13" customHeight="1"/>
     <row r="81" hidden="1"/>

--- a/Chain_Encoder/M5Stack-Chain-Encoder-通讯协议-V1.xlsx
+++ b/Chain_Encoder/M5Stack-Chain-Encoder-通讯协议-V1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="95">
   <si>
     <t>M5Stack Chain-Encoder Protocol</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Data1</t>
   </si>
   <si>
-    <t xml:space="preserve">data2 </t>
+    <t xml:space="preserve">Data2 </t>
   </si>
   <si>
     <t>Data3</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Data6</t>
+  </si>
+  <si>
+    <t>Data7</t>
   </si>
   <si>
     <t>获取编码器的值</t>
@@ -400,17 +403,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="10">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ @"/>
-    <numFmt numFmtId="177" formatCode="\ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="\ \ \ \ \ \ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="180" formatCode="\ \ \ \ \ \ \ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1518,7 +1518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1541,16 +1541,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1579,19 +1570,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1621,10 +1612,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,10 +1627,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1657,13 +1648,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,7 +1666,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1708,7 +1699,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1717,10 +1708,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1729,22 +1717,22 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2076,8 +2064,8 @@
   </sheetPr>
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:F54"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="14.25"/>
@@ -2108,13 +2096,13 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="57" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2127,11 +2115,11 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63">
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60">
         <v>45576</v>
       </c>
     </row>
@@ -2145,1458 +2133,1460 @@
       <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>4</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>5</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>6</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="61">
         <v>7</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="61">
         <v>8</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="61">
         <v>9</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="62">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="10.3" customHeight="1" spans="1:13">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="66"/>
+      <c r="M4" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:13">
-      <c r="A5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="G5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="63"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:13">
+      <c r="A6" s="8"/>
+      <c r="B6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="67"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:13">
-      <c r="A6" s="11"/>
-      <c r="B6" s="23" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="18" t="s">
+    </row>
+    <row r="7" ht="45" customHeight="1" spans="1:13">
+      <c r="A7" s="8"/>
+      <c r="B7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="64"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:13">
+      <c r="A8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="63"/>
+    </row>
+    <row r="9" ht="16" customHeight="1" spans="1:13">
+      <c r="A9" s="8"/>
+      <c r="B9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="C9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="53" customHeight="1" spans="1:13">
+      <c r="A10" s="8"/>
+      <c r="B10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="64"/>
+    </row>
+    <row r="11" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="E11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="F11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="63"/>
+    </row>
+    <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A12" s="25"/>
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="63"/>
+    </row>
+    <row r="13" customFormat="1" ht="53" customHeight="1" spans="1:13">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="65"/>
+    </row>
+    <row r="14" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="66"/>
+    </row>
+    <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:13">
+      <c r="A15" s="25"/>
+      <c r="B15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="63"/>
+    </row>
+    <row r="16" customFormat="1" ht="52" customHeight="1" spans="1:13">
+      <c r="A16" s="33"/>
+      <c r="B16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="64"/>
+    </row>
+    <row r="17" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A18" s="25"/>
+      <c r="B18" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="68"/>
+    </row>
+    <row r="19" customFormat="1" ht="72" customHeight="1" spans="1:13">
+      <c r="A19" s="33"/>
+      <c r="B19" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+    </row>
+    <row r="20" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A20" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+    </row>
+    <row r="21" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" customFormat="1" ht="16" customHeight="1" spans="1:13">
+      <c r="A23" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="71"/>
+    </row>
+    <row r="24" customFormat="1" ht="19" customHeight="1" spans="1:13">
+      <c r="A24" s="25"/>
+      <c r="B24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="63"/>
+    </row>
+    <row r="25" customFormat="1" ht="46" customHeight="1" spans="1:13">
+      <c r="A25" s="33"/>
+      <c r="B25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="64"/>
+    </row>
+    <row r="26" customFormat="1" ht="20" customHeight="1" spans="1:13">
+      <c r="A26" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="63"/>
+    </row>
+    <row r="27" customFormat="1" ht="20" customHeight="1" spans="1:13">
+      <c r="A27" s="25"/>
+      <c r="B27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="63"/>
+    </row>
+    <row r="28" customFormat="1" ht="31" customHeight="1" spans="1:13">
+      <c r="A28" s="33"/>
+      <c r="B28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="64"/>
+    </row>
+    <row r="29" customFormat="1" ht="19" customHeight="1" spans="1:13">
+      <c r="A29" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="63"/>
+    </row>
+    <row r="30" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A30" s="25"/>
+      <c r="B30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="63"/>
+    </row>
+    <row r="31" customFormat="1" ht="56" customHeight="1" spans="1:13">
+      <c r="A31" s="33"/>
+      <c r="B31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="64"/>
+    </row>
+    <row r="32" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A32" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="63"/>
+    </row>
+    <row r="33" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A33" s="25"/>
+      <c r="B33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="63"/>
+    </row>
+    <row r="34" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A34" s="33"/>
+      <c r="B34" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="64"/>
+    </row>
+    <row r="35" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="72"/>
+    </row>
+    <row r="36" customFormat="1" ht="19" customHeight="1" spans="1:13">
+      <c r="A36" s="25"/>
+      <c r="B36" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="63"/>
+    </row>
+    <row r="37" customFormat="1" ht="29" customHeight="1" spans="1:13">
+      <c r="A37" s="33"/>
+      <c r="B37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="64"/>
+    </row>
+    <row r="38" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A38" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="63"/>
+    </row>
+    <row r="39" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A39" s="25"/>
+      <c r="B39" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="38" customHeight="1" spans="1:13">
+      <c r="A40" s="33"/>
+      <c r="B40" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="64"/>
+    </row>
+    <row r="41" customFormat="1" ht="22" customHeight="1" spans="1:13">
+      <c r="A41" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="63"/>
+    </row>
+    <row r="42" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A42" s="25"/>
+      <c r="B42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="34" customHeight="1" spans="1:13">
+      <c r="A43" s="33"/>
+      <c r="B43" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="64"/>
+    </row>
+    <row r="44" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A44" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="63"/>
+    </row>
+    <row r="45" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A45" s="25"/>
+      <c r="B45" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="67" t="s">
+      <c r="D45" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" ht="45" customHeight="1" spans="1:13">
-      <c r="A7" s="11"/>
-      <c r="B7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="44" customHeight="1" spans="1:13">
+      <c r="A46" s="33"/>
+      <c r="B46" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="68"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:13">
-      <c r="A8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="C46" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="64"/>
+    </row>
+    <row r="47" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A47" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="C47" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="72"/>
+    </row>
+    <row r="48" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A48" s="25"/>
+      <c r="B48" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="D48" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="E48" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" ht="34" customHeight="1" spans="1:13">
+      <c r="A49" s="33"/>
+      <c r="B49" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A50" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="67"/>
-    </row>
-    <row r="9" ht="16" customHeight="1" spans="1:13">
-      <c r="A9" s="11"/>
-      <c r="B9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="63"/>
+    </row>
+    <row r="51" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A51" s="25"/>
+      <c r="B51" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="C51" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="D51" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="67" t="s">
+      <c r="E51" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" ht="53" customHeight="1" spans="1:13">
-      <c r="A10" s="11"/>
-      <c r="B10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="68"/>
-    </row>
-    <row r="11" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A11" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="28" customHeight="1" spans="1:13">
+      <c r="A52" s="33"/>
+      <c r="B52" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="64"/>
+    </row>
+    <row r="53" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A53" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="C53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="22" t="s">
+      <c r="E53" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="63"/>
+    </row>
+    <row r="54" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A54" s="25"/>
+      <c r="B54" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="67"/>
-    </row>
-    <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A12" s="28"/>
-      <c r="B12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="67"/>
-    </row>
-    <row r="13" customFormat="1" ht="53" customHeight="1" spans="1:13">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="69"/>
-    </row>
-    <row r="14" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A14" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="70"/>
-    </row>
-    <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:13">
-      <c r="A15" s="28"/>
-      <c r="B15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="67"/>
-    </row>
-    <row r="16" customFormat="1" ht="52" customHeight="1" spans="1:13">
-      <c r="A16" s="36"/>
-      <c r="B16" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="68"/>
-    </row>
-    <row r="17" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A17" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="67"/>
-    </row>
-    <row r="18" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A18" s="28"/>
-      <c r="B18" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
-    </row>
-    <row r="19" customFormat="1" ht="72" customHeight="1" spans="1:13">
-      <c r="A19" s="36"/>
-      <c r="B19" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-    </row>
-    <row r="20" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A20" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-    </row>
-    <row r="21" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-    </row>
-    <row r="22" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-    </row>
-    <row r="23" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A23" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="75"/>
-    </row>
-    <row r="24" customFormat="1" ht="19" customHeight="1" spans="1:13">
-      <c r="A24" s="28"/>
-      <c r="B24" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="67"/>
-    </row>
-    <row r="25" customFormat="1" ht="46" customHeight="1" spans="1:13">
-      <c r="A25" s="36"/>
-      <c r="B25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="68"/>
-    </row>
-    <row r="26" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A26" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="67"/>
-    </row>
-    <row r="27" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A27" s="28"/>
-      <c r="B27" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="67"/>
-    </row>
-    <row r="28" customFormat="1" ht="31" customHeight="1" spans="1:13">
-      <c r="A28" s="36"/>
-      <c r="B28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="68"/>
-    </row>
-    <row r="29" customFormat="1" ht="19" customHeight="1" spans="1:13">
-      <c r="A29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="67"/>
-    </row>
-    <row r="30" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A30" s="28"/>
-      <c r="B30" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="67"/>
-    </row>
-    <row r="31" customFormat="1" ht="56" customHeight="1" spans="1:13">
-      <c r="A31" s="36"/>
-      <c r="B31" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="68"/>
-    </row>
-    <row r="32" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A32" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="67"/>
-    </row>
-    <row r="33" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A33" s="28"/>
-      <c r="B33" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="67"/>
-    </row>
-    <row r="34" customFormat="1" ht="33" customHeight="1" spans="1:13">
-      <c r="A34" s="36"/>
-      <c r="B34" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="68"/>
-    </row>
-    <row r="35" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A35" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="76"/>
-    </row>
-    <row r="36" customFormat="1" ht="19" customHeight="1" spans="1:13">
-      <c r="A36" s="28"/>
-      <c r="B36" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="67"/>
-    </row>
-    <row r="37" customFormat="1" ht="29" customHeight="1" spans="1:13">
-      <c r="A37" s="36"/>
-      <c r="B37" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="68"/>
-    </row>
-    <row r="38" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A38" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="67"/>
-    </row>
-    <row r="39" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A39" s="28"/>
-      <c r="B39" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" ht="38" customHeight="1" spans="1:13">
-      <c r="A40" s="36"/>
-      <c r="B40" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="25" t="s">
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="68"/>
-    </row>
-    <row r="41" customFormat="1" ht="22" customHeight="1" spans="1:13">
-      <c r="A41" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="67"/>
-    </row>
-    <row r="42" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A42" s="28"/>
-      <c r="B42" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A43" s="36"/>
-      <c r="B43" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="68"/>
-    </row>
-    <row r="44" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A44" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="67"/>
-    </row>
-    <row r="45" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A45" s="28"/>
-      <c r="B45" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" ht="44" customHeight="1" spans="1:13">
-      <c r="A46" s="36"/>
-      <c r="B46" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="68"/>
-    </row>
-    <row r="47" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A47" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="76"/>
-    </row>
-    <row r="48" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A48" s="28"/>
-      <c r="B48" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A49" s="36"/>
-      <c r="B49" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="68"/>
-    </row>
-    <row r="50" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A50" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="67"/>
-    </row>
-    <row r="51" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A51" s="28"/>
-      <c r="B51" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" ht="28" customHeight="1" spans="1:13">
-      <c r="A52" s="36"/>
-      <c r="B52" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="68"/>
-    </row>
-    <row r="53" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A53" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="67"/>
-    </row>
-    <row r="54" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A54" s="28"/>
-      <c r="B54" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="67" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="55" customFormat="1" ht="32" customHeight="1" spans="1:13">
-      <c r="A55" s="36"/>
-      <c r="B55" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="77"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="73"/>
     </row>
     <row r="80" ht="13" customHeight="1"/>
     <row r="81" hidden="1"/>
